--- a/Doc/excel-template.xlsx
+++ b/Doc/excel-template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="申报信息列表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>项目分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地区/科室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,14 @@
   </si>
   <si>
     <t>预计服务人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +93,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,15 +139,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -429,58 +455,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
